--- a/biospecdb/apps/uploader/tests/data/meta_data.xlsx
+++ b/biospecdb/apps/uploader/tests/data/meta_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vkluzner/Work/git/BSR/biospecdb/biospecdb/apps/uploader/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamienoss/repos/biospecdb-project/biospecdb/biospecdb/apps/uploader/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E581F4A5-41CA-5C44-B14C-40E630467E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E94EC5-7C42-CA46-938C-84249D389CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21620" yWindow="2860" windowWidth="15040" windowHeight="14400" xr2:uid="{6C67B765-75CA-5F42-88FE-D1F4BED05A15}"/>
+    <workbookView xWindow="-33800" yWindow="1200" windowWidth="29580" windowHeight="19880" xr2:uid="{6C67B765-75CA-5F42-88FE-D1F4BED05A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="70">
   <si>
     <t>Patient ID</t>
   </si>
@@ -213,6 +213,39 @@
   </si>
   <si>
     <t>Gender (M/F)</t>
+  </si>
+  <si>
+    <t>Patient CID</t>
+  </si>
+  <si>
+    <t>fdc24622-4e5e-4d78-81f0-bc832509f2b4</t>
+  </si>
+  <si>
+    <t>896e1fca-9f90-41d1-9599-da73ded6b08e</t>
+  </si>
+  <si>
+    <t>bfd37087-f457-4c27-83a2-7058b2ea4c57</t>
+  </si>
+  <si>
+    <t>dbfcd987-76c8-4545-b822-ce41c9d24419</t>
+  </si>
+  <si>
+    <t>d83de5dc-3168-4c67-9f6c-c6294169c6b2</t>
+  </si>
+  <si>
+    <t>21b360a5-c600-4324-ae70-38f05e4bbe0e</t>
+  </si>
+  <si>
+    <t>4548ce6d-0e95-42fe-8f71-770acf15a16b</t>
+  </si>
+  <si>
+    <t>4b335928-ddda-49c3-9cbc-d1289e8c089c</t>
+  </si>
+  <si>
+    <t>4309037a-ca8d-45df-8969-1eda2c571d06</t>
+  </si>
+  <si>
+    <t>4628bd058-1181-409f-a762-97492d6a6179</t>
   </si>
 </sst>
 </file>
@@ -301,10 +334,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -632,186 +665,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCC409A-0F6A-A445-A77C-A7B22D278FED}">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.83203125" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>21</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>7</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I3" s="1" t="s">
         <v>36</v>
       </c>
@@ -819,31 +857,31 @@
         <v>36</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>36</v>
@@ -852,10 +890,10 @@
         <v>36</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>36</v>
@@ -867,49 +905,52 @@
         <v>36</v>
       </c>
       <c r="AA3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1">
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1">
         <v>32</v>
       </c>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1" t="s">
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>97</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
@@ -917,31 +958,31 @@
         <v>36</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>36</v>
@@ -950,10 +991,10 @@
         <v>36</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>36</v>
@@ -965,63 +1006,66 @@
         <v>36</v>
       </c>
       <c r="AA4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1">
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1">
         <v>32</v>
       </c>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1" t="s">
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>36</v>
@@ -1030,19 +1074,19 @@
         <v>36</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>36</v>
@@ -1063,63 +1107,66 @@
         <v>36</v>
       </c>
       <c r="AA5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1">
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1">
         <v>32</v>
       </c>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1" t="s">
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>44</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>36</v>
@@ -1128,19 +1175,19 @@
         <v>36</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>36</v>
@@ -1161,49 +1208,52 @@
         <v>36</v>
       </c>
       <c r="AA6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1">
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1">
         <v>32</v>
       </c>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1" t="s">
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AI6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>55</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1211,13 +1261,13 @@
         <v>36</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>36</v>
@@ -1259,53 +1309,56 @@
         <v>36</v>
       </c>
       <c r="AA7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1">
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1">
         <v>32</v>
       </c>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1" t="s">
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AI7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="1">
-        <v>24.8</v>
       </c>
       <c r="D8" s="1">
         <v>24.8</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>22</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1361,70 +1414,73 @@
         <v>36</v>
       </c>
       <c r="AA8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1">
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1">
         <v>32</v>
       </c>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1" t="s">
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="1">
-        <v>18.18</v>
       </c>
       <c r="D9" s="1">
         <v>18.18</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1">
+        <v>18.18</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>17</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>3</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>36</v>
@@ -1433,10 +1489,10 @@
         <v>36</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>36</v>
@@ -1463,57 +1519,60 @@
         <v>36</v>
       </c>
       <c r="AA9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1">
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1">
         <v>32</v>
       </c>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1" t="s">
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AH9" s="1" t="s">
+      <c r="AI9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>57</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>5</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>37</v>
@@ -1522,10 +1581,10 @@
         <v>37</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>37</v>
@@ -1534,7 +1593,7 @@
         <v>37</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>36</v>
@@ -1561,49 +1620,52 @@
         <v>36</v>
       </c>
       <c r="AA10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AC10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1">
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1">
         <v>32</v>
       </c>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1" t="s">
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AH10" s="1" t="s">
+      <c r="AI10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>11</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1611,16 +1673,16 @@
         <v>36</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>36</v>
@@ -1647,10 +1709,10 @@
         <v>36</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>36</v>
@@ -1659,57 +1721,60 @@
         <v>36</v>
       </c>
       <c r="AA11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AC11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1">
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1">
         <v>32</v>
       </c>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1" t="s">
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AH11" s="1" t="s">
+      <c r="AI11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>31</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>12</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>37</v>
@@ -1721,16 +1786,16 @@
         <v>37</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>36</v>
@@ -1757,32 +1822,59 @@
         <v>36</v>
       </c>
       <c r="AA12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AC12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1">
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1">
         <v>32</v>
       </c>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1" t="s">
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AH12" s="1" t="s">
+      <c r="AI12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="AJ1:AJ2"/>
+  <mergeCells count="37">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="AK1:AK2"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="AB1:AB2"/>
@@ -1793,36 +1885,14 @@
     <mergeCell ref="AG1:AG2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="AJ1:AJ2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:U12">
+  <conditionalFormatting sqref="I3:V12">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>